--- a/Database/Kamus Table.xlsx
+++ b/Database/Kamus Table.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="104">
   <si>
     <t>id</t>
   </si>
@@ -138,48 +138,6 @@
   </si>
   <si>
     <t>Alias</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t>Alus_users</t>
@@ -1446,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87:F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,10 +1434,10 @@
   <sheetData>
     <row r="3" spans="3:6" ht="61.5" x14ac:dyDescent="0.9">
       <c r="C3" s="11" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
@@ -1506,9 +1464,7 @@
       <c r="E5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
@@ -1520,9 +1476,7 @@
       <c r="E6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
@@ -1534,9 +1488,7 @@
       <c r="E7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
@@ -1549,7 +1501,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
@@ -1560,11 +1512,9 @@
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
@@ -1577,7 +1527,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
@@ -1591,7 +1541,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
@@ -1602,10 +1552,10 @@
         <v>13</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
@@ -1619,7 +1569,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
@@ -1633,7 +1583,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
@@ -1647,7 +1597,7 @@
         <v>16</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
@@ -1660,9 +1610,7 @@
       <c r="E16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
@@ -1674,9 +1622,7 @@
       <c r="E17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
@@ -1688,9 +1634,7 @@
       <c r="E18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
@@ -1702,9 +1646,7 @@
       <c r="E19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
@@ -1716,9 +1658,7 @@
       <c r="E20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
@@ -1730,9 +1670,7 @@
       <c r="E21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
@@ -1744,16 +1682,14 @@
       <c r="E22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="F22" s="9"/>
     </row>
     <row r="26" spans="3:6" ht="61.5" x14ac:dyDescent="0.9">
       <c r="C26" s="11" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
@@ -1775,49 +1711,43 @@
         <v>0</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" s="4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" s="7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F30" s="9"/>
     </row>
     <row r="36" spans="3:6" ht="61.5" x14ac:dyDescent="0.9">
       <c r="C36" s="11" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
@@ -1836,108 +1766,94 @@
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" s="4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" s="4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" s="4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F41" s="6"/>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" s="4" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F42" s="6"/>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43" s="4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F43" s="6"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" s="7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>36</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F44" s="9"/>
     </row>
     <row r="51" spans="3:6" ht="61.5" x14ac:dyDescent="0.9">
       <c r="C51" s="11" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
@@ -1959,105 +1875,91 @@
         <v>0</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="F53" s="6"/>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54" s="4" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F54" s="6"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55" s="4" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F55" s="6"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="F56" s="6"/>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C57" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F57" s="6"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C58" s="4" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F58" s="6"/>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C59" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>36</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F59" s="9"/>
     </row>
     <row r="63" spans="3:6" ht="61.5" x14ac:dyDescent="0.9">
       <c r="C63" s="11" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.25">
@@ -2084,37 +1986,31 @@
       <c r="E65" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F65" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="F65" s="6"/>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" s="4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F66" s="6"/>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" s="7" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F67" s="9"/>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C68"/>
@@ -2138,13 +2034,13 @@
     </row>
     <row r="74" spans="3:6" ht="61.5" x14ac:dyDescent="0.9">
       <c r="C74" s="11" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.25">
@@ -2171,9 +2067,7 @@
       <c r="E76" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F76" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="F76" s="6"/>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C77" s="4" t="s">
@@ -2183,49 +2077,43 @@
         <v>8</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F77" s="6"/>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C78" s="4" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F78" s="6"/>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C79" s="7" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>33</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F79" s="15"/>
     </row>
     <row r="85" spans="3:6" ht="61.5" x14ac:dyDescent="0.9">
       <c r="C85" s="13" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="3:6" x14ac:dyDescent="0.25">
@@ -2244,108 +2132,94 @@
     </row>
     <row r="87" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C87" s="4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F87" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="F87" s="6"/>
     </row>
     <row r="88" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C88" s="4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F88" s="6"/>
     </row>
     <row r="89" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C89" s="4" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F89" s="6"/>
     </row>
     <row r="90" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C90" s="4" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F90" s="6"/>
     </row>
     <row r="91" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C91" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F91" s="6"/>
     </row>
     <row r="92" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C92" s="4" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F92" s="6"/>
     </row>
     <row r="93" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C93" s="7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>36</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F93" s="9"/>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" s="5" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
